--- a/PROYEK SPK.xlsx
+++ b/PROYEK SPK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5beefe889f69cc5f/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDBB35B3-11CD-47E4-9E6A-C2CE08AC9B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{FDBB35B3-11CD-47E4-9E6A-C2CE08AC9B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3083D6A7-64DD-4630-AC39-A72D8C2B7F92}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="1044" windowWidth="17280" windowHeight="8880" xr2:uid="{4640580D-392D-488A-B532-B6CCCE74B001}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4640580D-392D-488A-B532-B6CCCE74B001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2EBF33-2C8B-4C8B-AE1A-19382E7B2EB7}">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2">
         <v>97</v>
@@ -700,10 +700,10 @@
         <v>96</v>
       </c>
       <c r="E8" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2">
         <v>98</v>
@@ -940,7 +940,7 @@
       </c>
       <c r="E16" s="2">
         <f>MIN($E$4:$E$13)/E4</f>
-        <v>0.96938775510204078</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="F16" s="2">
         <f>F4/MAX(F4:F13)</f>
@@ -980,7 +980,7 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ref="E17:E25" si="3">MIN($E$4:$E$13)/E5</f>
-        <v>0.98958333333333337</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ref="F17:F25" si="4">F5/MAX(F5:F14)</f>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" si="3"/>
-        <v>0.98958333333333337</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="4"/>
@@ -1060,11 +1060,11 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" si="3"/>
-        <v>0.97938144329896903</v>
+        <v>0.98969072164948457</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="4"/>
-        <v>0.97959183673469385</v>
+        <v>0.98969072164948457</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="5"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.96938775510204078</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
@@ -1100,11 +1100,11 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.98969072164948457</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.98969072164948457</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="5"/>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>0.96938775510204078</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="4"/>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" si="3"/>
-        <v>0.97938144329896903</v>
+        <v>0.98969072164948457</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="4"/>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" si="3"/>
-        <v>0.98958333333333337</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="4"/>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" si="3"/>
-        <v>0.97938144329896903</v>
+        <v>0.98969072164948457</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="4"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" si="3"/>
-        <v>0.96938775510204078</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="4"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E29" s="2">
         <f>E16*$E$28</f>
-        <v>0.14540816326530612</v>
+        <v>0.14693877551020407</v>
       </c>
       <c r="F29" s="2">
         <f>F16*$F$28</f>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="J29" s="2">
         <f>SUM(B29:I29)</f>
-        <v>0.98153797601514825</v>
+        <v>0.98306858826004617</v>
       </c>
       <c r="K29" s="2">
         <f>_xlfn.RANK.AVG(J29,$J$29:$J$38)</f>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" ref="E30:E38" si="11">E17*$E$28</f>
-        <v>0.1484375</v>
+        <v>0.15</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ref="F30:F38" si="12">F17*$F$28</f>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" ref="J30:J38" si="16">SUM(B30:I30)</f>
-        <v>0.97739815642751937</v>
+        <v>0.97896065642751928</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" ref="K30:K38" si="17">_xlfn.RANK.AVG(J30,$J$29:$J$38)</f>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" si="11"/>
-        <v>0.1484375</v>
+        <v>0.15</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="12"/>
@@ -1530,11 +1530,11 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="16"/>
-        <v>0.99073710025247208</v>
+        <v>0.99229960025247199</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
     </row>
@@ -1556,11 +1556,11 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" si="11"/>
-        <v>0.14690721649484534</v>
+        <v>0.14845360824742268</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="12"/>
-        <v>9.7959183673469397E-2</v>
+        <v>9.8969072164948463E-2</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="13"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="16"/>
-        <v>0.9799968440984641</v>
+        <v>0.9825531243425204</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="17"/>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="8"/>
-        <v>0.15</v>
+        <v>0.14540816326530612</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="9"/>
@@ -1602,11 +1602,11 @@
       </c>
       <c r="E33" s="2">
         <f t="shared" si="11"/>
-        <v>0.15</v>
+        <v>0.14845360824742268</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="12"/>
-        <v>0.1</v>
+        <v>9.8969072164948463E-2</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="13"/>
@@ -1621,12 +1621,12 @@
         <v>9.6907216494845363E-2</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="16"/>
-        <v>0.99381443298969074</v>
+        <f>SUM(B33:I33)</f>
+        <v>0.98664527666736801</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="1"/>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" si="11"/>
-        <v>0.14540816326530612</v>
+        <v>0.14693877551020407</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="12"/>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="16"/>
-        <v>0.96462234378287393</v>
+        <v>0.96615295602777185</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="17"/>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" si="11"/>
-        <v>0.14690721649484534</v>
+        <v>0.14845360824742268</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="12"/>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="16"/>
-        <v>0.9656059330948874</v>
+        <v>0.96715232484746472</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="17"/>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="E36" s="2">
         <f t="shared" si="11"/>
-        <v>0.1484375</v>
+        <v>0.15</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="12"/>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="16"/>
-        <v>0.98406762833999573</v>
+        <v>0.98563012833999564</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="17"/>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="E37" s="2">
         <f t="shared" si="11"/>
-        <v>0.14690721649484534</v>
+        <v>0.14845360824742268</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="12"/>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" si="16"/>
-        <v>0.96302727057043469</v>
+        <v>0.964573662323012</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="17"/>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E38" s="2">
         <f t="shared" si="11"/>
-        <v>0.14540816326530612</v>
+        <v>0.14693877551020407</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="12"/>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="16"/>
-        <v>0.96926151904060598</v>
+        <v>0.9707921312855039</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="17"/>
